--- a/module/VoiceLogAnalyticReport/template.xlsx
+++ b/module/VoiceLogAnalyticReport/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b0855\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C98F2CFA-7B50-44C1-8C39-2255180BD907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356D63E2-B818-4BD4-9C27-15731D81D346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C54B6BB-4F2F-402D-A58C-3B97C332F2F9}"/>
   </bookViews>
@@ -547,12 +547,13 @@
   <dimension ref="A15:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="15.625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="35" style="8" customWidth="1"/>
+    <col min="2" max="8" width="15.625" style="8" customWidth="1"/>
     <col min="9" max="16384" width="15.625" style="8"/>
   </cols>
   <sheetData>

--- a/module/VoiceLogAnalyticReport/template.xlsx
+++ b/module/VoiceLogAnalyticReport/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b0855\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356D63E2-B818-4BD4-9C27-15731D81D346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93A4794-666C-4189-AA9B-F9411E52D69B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C54B6BB-4F2F-402D-A58C-3B97C332F2F9}"/>
   </bookViews>
@@ -544,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8813759-AFA4-41DF-BE84-4BE06C55ADAF}">
-  <dimension ref="A15:H16"/>
+  <dimension ref="A15:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B15"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -557,30 +557,33 @@
     <col min="9" max="16384" width="15.625" style="8"/>
   </cols>
   <sheetData>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="15" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>7</v>
       </c>
     </row>

--- a/module/VoiceLogAnalyticReport/template.xlsx
+++ b/module/VoiceLogAnalyticReport/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b0855\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93A4794-666C-4189-AA9B-F9411E52D69B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFA7788-1B7D-4FCC-B211-D2C83AC30B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C54B6BB-4F2F-402D-A58C-3B97C332F2F9}"/>
   </bookViews>
@@ -544,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8813759-AFA4-41DF-BE84-4BE06C55ADAF}">
-  <dimension ref="A15:H19"/>
+  <dimension ref="A15:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -561,29 +561,33 @@
     <row r="16" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>7</v>
       </c>
     </row>

--- a/module/VoiceLogAnalyticReport/template.xlsx
+++ b/module/VoiceLogAnalyticReport/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b0855\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gsb\module\VoiceLogAnalyticReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFA7788-1B7D-4FCC-B211-D2C83AC30B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3A866E-467E-43B8-9CAC-D02AE9C3520D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C54B6BB-4F2F-402D-A58C-3B97C332F2F9}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Destination Pass</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>Remark</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -200,7 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,9 +210,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -547,14 +544,14 @@
   <dimension ref="A15:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35" style="8" customWidth="1"/>
-    <col min="2" max="8" width="15.625" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="15.625" style="8"/>
+    <col min="1" max="1" width="35" style="7" customWidth="1"/>
+    <col min="2" max="8" width="15.625" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="15.625" style="7"/>
   </cols>
   <sheetData>
     <row r="15" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -581,14 +578,14 @@
       <c r="E23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -607,51 +604,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="13.625" style="8" customWidth="1"/>
+    <col min="1" max="14" width="13.625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/module/VoiceLogAnalyticReport/template.xlsx
+++ b/module/VoiceLogAnalyticReport/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gsb\module\VoiceLogAnalyticReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3A866E-467E-43B8-9CAC-D02AE9C3520D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A79D09-F487-4960-88DF-BE699DE89225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C54B6BB-4F2F-402D-A58C-3B97C332F2F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9C54B6BB-4F2F-402D-A58C-3B97C332F2F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Qc Report" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Intention</t>
   </si>
@@ -64,18 +64,9 @@
     <t>Sentence</t>
   </si>
   <si>
-    <t>% Sentence Confidence</t>
-  </si>
-  <si>
-    <t>Conversation</t>
-  </si>
-  <si>
     <t>Best Intent</t>
   </si>
   <si>
-    <t xml:space="preserve"> % Best Intent Confidence</t>
-  </si>
-  <si>
     <t>All Concept Result</t>
   </si>
   <si>
@@ -88,23 +79,35 @@
     <t>QC Status</t>
   </si>
   <si>
-    <t>Expected Intent</t>
-  </si>
-  <si>
-    <t>Correct Sentence</t>
-  </si>
-  <si>
     <t>Remark</t>
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Grammar</t>
+  </si>
+  <si>
+    <t>chnn</t>
+  </si>
+  <si>
+    <t>voice_name</t>
+  </si>
+  <si>
+    <t>% Best Intent Confidence</t>
+  </si>
+  <si>
+    <t>expec_intent</t>
+  </si>
+  <si>
+    <t>new_sentence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,8 +127,26 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,12 +179,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -195,12 +222,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -223,13 +266,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{78B38B35-B3A2-4E27-90A6-F437D33CA21C}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{7DCDE89C-C797-49FD-9644-EFF2B8D88957}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -543,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8813759-AFA4-41DF-BE84-4BE06C55ADAF}">
   <dimension ref="A15:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -579,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>5</v>
@@ -596,59 +643,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87701746-5634-43AE-94D6-34E4F27638B6}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="13.625" style="7" customWidth="1"/>
+    <col min="1" max="7" width="13.625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="25.375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="7" customWidth="1"/>
+    <col min="10" max="11" width="25.5" style="7" customWidth="1"/>
+    <col min="12" max="14" width="13.625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="K1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="M1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/module/VoiceLogAnalyticReport/template.xlsx
+++ b/module/VoiceLogAnalyticReport/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gsb\module\VoiceLogAnalyticReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A79D09-F487-4960-88DF-BE699DE89225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6738775F-26FE-4F47-9848-B00E73DFE3C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9C54B6BB-4F2F-402D-A58C-3B97C332F2F9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Intention</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>new_sentence</t>
+  </si>
+  <si>
+    <t>Action</t>
   </si>
 </sst>
 </file>
@@ -643,10 +646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87701746-5634-43AE-94D6-34E4F27638B6}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -657,9 +660,10 @@
     <col min="10" max="11" width="25.5" style="7" customWidth="1"/>
     <col min="12" max="14" width="13.625" style="7" customWidth="1"/>
     <col min="15" max="15" width="26.875" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -704,6 +708,9 @@
       </c>
       <c r="O1" s="9" t="s">
         <v>15</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/module/VoiceLogAnalyticReport/template.xlsx
+++ b/module/VoiceLogAnalyticReport/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gsb\module\VoiceLogAnalyticReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6738775F-26FE-4F47-9848-B00E73DFE3C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CACBC66-FAEC-40E3-B9C2-F277D6E30BCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9C54B6BB-4F2F-402D-A58C-3B97C332F2F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C54B6BB-4F2F-402D-A58C-3B97C332F2F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Qc Report" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Intention</t>
   </si>
@@ -104,13 +104,34 @@
   </si>
   <si>
     <t>Action</t>
+  </si>
+  <si>
+    <t>% Accuary</t>
+  </si>
+  <si>
+    <t>Customer :</t>
+  </si>
+  <si>
+    <t>Project :</t>
+  </si>
+  <si>
+    <t>Test Start Date :</t>
+  </si>
+  <si>
+    <t>Report Date :</t>
+  </si>
+  <si>
+    <t>Summary :</t>
+  </si>
+  <si>
+    <t>Passed Calls</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +169,16 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +221,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -240,13 +275,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -273,6 +388,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -591,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8813759-AFA4-41DF-BE84-4BE06C55ADAF}">
-  <dimension ref="A15:H23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -604,13 +779,234 @@
     <col min="9" max="16384" width="15.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="15" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="26"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="26"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="26"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="26"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="26"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="26"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="26"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="26"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="26"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="26"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+    </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -639,6 +1035,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:H21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -648,7 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87701746-5634-43AE-94D6-34E4F27638B6}">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>

--- a/module/VoiceLogAnalyticReport/template.xlsx
+++ b/module/VoiceLogAnalyticReport/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gsb\module\VoiceLogAnalyticReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CACBC66-FAEC-40E3-B9C2-F277D6E30BCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7332A471-A56F-4EE7-8D93-E2D051AE04E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C54B6BB-4F2F-402D-A58C-3B97C332F2F9}"/>
   </bookViews>
@@ -390,33 +390,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -448,6 +421,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,237 +775,239 @@
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" style="7" customWidth="1"/>
-    <col min="2" max="8" width="15.625" style="7" customWidth="1"/>
+    <col min="2" max="4" width="15.625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="7" customWidth="1"/>
+    <col min="6" max="8" width="15.625" style="7" customWidth="1"/>
     <col min="9" max="16384" width="15.625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="22" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="22" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="22" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="22" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="22" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="25" t="s">
+      <c r="G10" s="14"/>
+      <c r="H10" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="25"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="25" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="25"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="25" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="13" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">

--- a/module/VoiceLogAnalyticReport/template.xlsx
+++ b/module/VoiceLogAnalyticReport/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gsb\module\VoiceLogAnalyticReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7332A471-A56F-4EE7-8D93-E2D051AE04E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D61A30-4520-4E17-AF0E-765B26ABD9C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C54B6BB-4F2F-402D-A58C-3B97C332F2F9}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>Action</t>
   </si>
   <si>
-    <t>% Accuary</t>
-  </si>
-  <si>
     <t>Customer :</t>
   </si>
   <si>
@@ -125,13 +122,16 @@
   </si>
   <si>
     <t>Passed Calls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuary   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +171,14 @@
     </font>
     <font>
       <sz val="36"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -423,32 +431,32 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -769,7 +777,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F21"/>
+      <selection activeCell="G18" sqref="G18:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -798,7 +806,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="15"/>
       <c r="F2" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="15"/>
@@ -820,7 +828,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
       <c r="F4" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
@@ -842,7 +850,7 @@
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
       <c r="F6" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
@@ -864,7 +872,7 @@
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
@@ -886,7 +894,7 @@
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
       <c r="F10" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="16" t="s">
@@ -934,7 +942,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="14"/>
       <c r="H14" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -975,7 +983,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="21"/>
       <c r="G18" s="24" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H18" s="25"/>
     </row>

--- a/module/VoiceLogAnalyticReport/template.xlsx
+++ b/module/VoiceLogAnalyticReport/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gsb\module\VoiceLogAnalyticReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D61A30-4520-4E17-AF0E-765B26ABD9C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE4A1E2-AB13-4533-9F03-E40BD5B0137D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C54B6BB-4F2F-402D-A58C-3B97C332F2F9}"/>
   </bookViews>
@@ -369,7 +369,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -457,6 +457,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -774,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8813759-AFA4-41DF-BE84-4BE06C55ADAF}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:H21"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1044,6 +1047,414 @@
         <v>6</v>
       </c>
     </row>
+    <row r="24" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="377" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="378" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="379" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="380" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="381" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="383" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="385" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="386" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="387" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="389" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="390" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="391" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="392" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="393" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="394" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="395" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="396" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="397" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="398" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="399" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="400" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="401" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="402" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="403" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="404" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="405" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="406" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="407" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="408" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="409" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="410" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="411" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="412" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="413" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="414" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="415" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="416" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="419" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="420" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="421" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="422" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="423" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="424" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="425" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="426" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="427" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="428" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="429" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="430" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="431" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F18:F21"/>
